--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -5,33 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vignesh.chandramohan\workspace1\TestNGDataDriverFrmWrk\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vignesh\Automation\Automation_Source_Code\TestNGNewFramework\POMTestNGFramewrok\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3AD00-1C44-4AE4-8CE8-B7B7FCCA6D95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD67B8F8-DFD9-48FE-BC2E-AE10263B77CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{9A72053A-9D4D-4D5D-B70A-A24A6CC3E042}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="7512" activeTab="1" xr2:uid="{9A72053A-9D4D-4D5D-B70A-A24A6CC3E042}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="SubmitOrder" sheetId="2" r:id="rId2"/>
+    <sheet name="BookFlight" sheetId="3" r:id="rId2"/>
+    <sheet name="SubmitOrder" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>UserName</t>
   </si>
@@ -52,6 +48,24 @@
   </si>
   <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>CreditCardNumbert</t>
+  </si>
+  <si>
+    <t>asmcnas</t>
+  </si>
+  <si>
+    <t>lndcla</t>
+  </si>
+  <si>
+    <t>23049234923</t>
   </si>
 </sst>
 </file>
@@ -87,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85901D2C-D645-46B0-8008-F0F2EB057A6A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -434,6 +449,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865A83E6-F8BC-4FD7-B013-49659B571B82}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44DF82A-E865-4010-88E3-844EECB8A4AA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
